--- a/data/trans_dic/P1404-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1404-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04239330074440274</v>
+        <v>0.04416153243581002</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06691982155460698</v>
+        <v>0.06912235086826907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07271135114972525</v>
+        <v>0.07624687778679831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1117925418509556</v>
+        <v>0.1113095226781632</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04567113285693027</v>
+        <v>0.04305381107074073</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03638340847259072</v>
+        <v>0.04012842781862205</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05280258941802746</v>
+        <v>0.05318174891863456</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1102022099754717</v>
+        <v>0.1108126463946185</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05135207562467156</v>
+        <v>0.04846105389291411</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06214129887638929</v>
+        <v>0.06105635078376286</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07343797922759142</v>
+        <v>0.07058628934078309</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1179761318742477</v>
+        <v>0.1176653235683075</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.089060342652603</v>
+        <v>0.09348287768900544</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1311330425502228</v>
+        <v>0.1331308728444223</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1350708585325549</v>
+        <v>0.1385834959232826</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.166879634915184</v>
+        <v>0.1670131287684402</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1072419181778736</v>
+        <v>0.1045759527489609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09703207896815307</v>
+        <v>0.09849732393717868</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1174961324237631</v>
+        <v>0.1239103819150125</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1601045618384191</v>
+        <v>0.1580140489002921</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08826079102755029</v>
+        <v>0.08617003738814859</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1046664213785863</v>
+        <v>0.1020340076750542</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1192158950204101</v>
+        <v>0.1173500754697676</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1556280002158009</v>
+        <v>0.1541964261250205</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05697949838138497</v>
+        <v>0.05618845864748616</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06432753364022176</v>
+        <v>0.06271673343954941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07495056593576199</v>
+        <v>0.0759482797911623</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1312535821149335</v>
+        <v>0.1314077325932126</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04077111582576289</v>
+        <v>0.04197896059791726</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0488019702082292</v>
+        <v>0.04880977039801326</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05805793792948764</v>
+        <v>0.05941120764045851</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08880302386346837</v>
+        <v>0.08901526770478299</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05414467978392762</v>
+        <v>0.05420438264832692</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06327963785728381</v>
+        <v>0.06423063228968534</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07362173183576193</v>
+        <v>0.0752466946101642</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.116839114037123</v>
+        <v>0.1167555062205789</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1155533365309029</v>
+        <v>0.1126949119606881</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.121057777993852</v>
+        <v>0.1198531022402853</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1474656136621024</v>
+        <v>0.1406487663292402</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1942053572822272</v>
+        <v>0.196343579364682</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09061004812114305</v>
+        <v>0.09089224069805196</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1064468374702585</v>
+        <v>0.1086479699241176</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.117579805668753</v>
+        <v>0.1197894137789818</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1372982349385693</v>
+        <v>0.1362046685195304</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09265284988285513</v>
+        <v>0.0942297486398521</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1041837572106459</v>
+        <v>0.1054073186273126</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1199067285616709</v>
+        <v>0.121674935051536</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1572591588798166</v>
+        <v>0.158318496151199</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07925988494964709</v>
+        <v>0.07919700589833338</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1096428179760828</v>
+        <v>0.1110473828201919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1123857085187021</v>
+        <v>0.1114830408967296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1406739796857221</v>
+        <v>0.1425891474195539</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05735423873436386</v>
+        <v>0.05655590714813209</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05586807736462879</v>
+        <v>0.05562449754113201</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08519070319329816</v>
+        <v>0.08250341859993149</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1526800777656193</v>
+        <v>0.1555273668128152</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08014643095666713</v>
+        <v>0.08268475256425759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1016249347038179</v>
+        <v>0.1021067405445863</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1113281780682038</v>
+        <v>0.1125612848108517</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1526370897020611</v>
+        <v>0.1526252911959325</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1337788743998429</v>
+        <v>0.1328544615492085</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1693441164232851</v>
+        <v>0.1692747703894506</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1748432481010546</v>
+        <v>0.1740466353591721</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2060817747897338</v>
+        <v>0.2080948651152041</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1529558134592657</v>
+        <v>0.145213634376016</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1257560278471358</v>
+        <v>0.1263556562437161</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2022483732106902</v>
+        <v>0.2037642446023753</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.241329158606965</v>
+        <v>0.2475388192465009</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1249648757154338</v>
+        <v>0.1275551894010034</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1466324944493377</v>
+        <v>0.1505888502421731</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1676969708217621</v>
+        <v>0.1675976261557615</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2068125821191324</v>
+        <v>0.2063052122412853</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1263281888741386</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1546363381331247</v>
+        <v>0.1546363381331248</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.07615943938513807</v>
@@ -1093,7 +1093,7 @@
         <v>0.09438172487708885</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1261775235574096</v>
+        <v>0.1261775235574097</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.08526912138523239</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07465487842295648</v>
+        <v>0.07495502166519688</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1141208481414171</v>
+        <v>0.1127902384859148</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1080620906891225</v>
+        <v>0.1078941405117725</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1349422214656818</v>
+        <v>0.1342549245043856</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05859095868208367</v>
+        <v>0.0585372534947863</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07487975067964643</v>
+        <v>0.07366008147878733</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07417229796331748</v>
+        <v>0.07716113166311445</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1110708024830153</v>
+        <v>0.1098000563069039</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07313519065556968</v>
+        <v>0.07424041838900307</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1032688400283871</v>
+        <v>0.1031041410383366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09958244081743665</v>
+        <v>0.09947381627730784</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1289038886626389</v>
+        <v>0.1286983338667816</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1068392257312519</v>
+        <v>0.1067971280001861</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1563497546508701</v>
+        <v>0.1552959291041991</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1508260852385532</v>
+        <v>0.1470209892831358</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1772466279018221</v>
+        <v>0.1754659882985356</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09917786284194816</v>
+        <v>0.09687266078456161</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1184316352158841</v>
+        <v>0.1196788930047949</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1161749041080125</v>
+        <v>0.1167814710182656</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1463372916110664</v>
+        <v>0.144090828634369</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09700499051648681</v>
+        <v>0.09932106049008671</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1335390413802223</v>
+        <v>0.1343291358279713</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1278308209291089</v>
+        <v>0.1288511756864646</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1562987551826656</v>
+        <v>0.1564950495017154</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1638449355905028</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2205229877212509</v>
+        <v>0.2205229877212508</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.09645522379129996</v>
@@ -1241,7 +1241,7 @@
         <v>0.1492654393410731</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1912990760767981</v>
+        <v>0.191299076076798</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05191343024561278</v>
+        <v>0.05299802620673207</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09868030584246468</v>
+        <v>0.09858541199515787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1059600800411836</v>
+        <v>0.1087791775830738</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1204666952649706</v>
+        <v>0.1219191629173951</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08664100627790511</v>
+        <v>0.08493359345525614</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1487154662015986</v>
+        <v>0.149151135902379</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1375462787266469</v>
+        <v>0.1361932791615123</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1991743954526977</v>
+        <v>0.1989579516163122</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07936343878949381</v>
+        <v>0.07771754999139723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1359837203096106</v>
+        <v>0.1342082700466784</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1297461303600922</v>
+        <v>0.1295467388622787</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1731941301378775</v>
+        <v>0.1737779853927457</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1073314794832906</v>
+        <v>0.1071583689900978</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1559198927679353</v>
+        <v>0.1630884521177185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1595806679554949</v>
+        <v>0.1617315832160436</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1784662151800391</v>
+        <v>0.1767433654347015</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1362057269763365</v>
+        <v>0.1382462356236412</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.207899222239997</v>
+        <v>0.2102816734546626</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1930772383741926</v>
+        <v>0.1937773168732232</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2452954723872896</v>
+        <v>0.2436925435533955</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1179305798896396</v>
+        <v>0.1179360271015013</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1797028740659037</v>
+        <v>0.1769687702920142</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.168679575364951</v>
+        <v>0.1707608956272204</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2089039967386876</v>
+        <v>0.2088350344794344</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1712144025615377</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1774464146380361</v>
+        <v>0.177446414638036</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1127477918710058</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003055327080775238</v>
+        <v>0.003063646373653107</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003488637859083081</v>
+        <v>0.00349599652927483</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003944011784054275</v>
+        <v>0.00392800716636424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.008300342072420332</v>
+        <v>0.009153929868135071</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1190817341697813</v>
+        <v>0.1189700258100576</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1697282758486306</v>
+        <v>0.1726545350631774</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1483135805383969</v>
+        <v>0.1470990837021065</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1560830093857196</v>
+        <v>0.1560902301905629</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09782699132974224</v>
+        <v>0.09575791269750002</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1430776351695111</v>
+        <v>0.1397101274384547</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1213065287607582</v>
+        <v>0.1198584352613502</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1247940102982313</v>
+        <v>0.1263715627411886</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02672867840164754</v>
+        <v>0.02676816704976252</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04322036145102578</v>
+        <v>0.0417365834671064</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03837437725278003</v>
+        <v>0.0389039023926598</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04871482039012851</v>
+        <v>0.05086846447416704</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1581518804898247</v>
+        <v>0.1589288926144204</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2194014474890105</v>
+        <v>0.2221570170895198</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1986019516986541</v>
+        <v>0.1979241296426633</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1995302292241692</v>
+        <v>0.1989499265095555</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1300570831409391</v>
+        <v>0.1288417487063821</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1837747717362352</v>
+        <v>0.1804838569315782</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1591852540997536</v>
+        <v>0.1593740665362016</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1612718121505488</v>
+        <v>0.1609690871361516</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.1237614501613443</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.154037834917923</v>
+        <v>0.1540378349179229</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06989604824352942</v>
+        <v>0.07034895979291346</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1027116156870832</v>
+        <v>0.1019492434182241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1045186287588261</v>
+        <v>0.1036403795551038</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1331275165036473</v>
+        <v>0.133586991260814</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09245016766970088</v>
+        <v>0.09281474837610709</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.126326882728087</v>
+        <v>0.126579223383773</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1209711672694193</v>
+        <v>0.1212783370751961</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1527169824836912</v>
+        <v>0.1529820046598361</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.08472281094696801</v>
+        <v>0.08447008698349083</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.117106606693591</v>
+        <v>0.1176218001339644</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1145896006154553</v>
+        <v>0.1162817176856105</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1465578246956624</v>
+        <v>0.146112165804673</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08827908384125757</v>
+        <v>0.08952002901027546</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.125432620376421</v>
+        <v>0.1261435241914356</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1269079781847071</v>
+        <v>0.1262426735152159</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1562337862251573</v>
+        <v>0.1573086783274474</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1142492696904392</v>
+        <v>0.1135601160255567</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.151017293369918</v>
+        <v>0.1500536274898704</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1446489932015</v>
+        <v>0.1439548437779571</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1727972220673463</v>
+        <v>0.1720121852348297</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.09874268874950601</v>
+        <v>0.09822512467756869</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1344794566746383</v>
+        <v>0.1336714351252501</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1316914489101079</v>
+        <v>0.1323681886078478</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1614756303239577</v>
+        <v>0.1616254003570027</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20085</v>
+        <v>20923</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29258</v>
+        <v>30221</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31200</v>
+        <v>32717</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>61555</v>
+        <v>61289</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14006</v>
+        <v>13204</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11441</v>
+        <v>12619</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18325</v>
+        <v>18457</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>53824</v>
+        <v>54122</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40078</v>
+        <v>37822</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>46709</v>
+        <v>45894</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>56999</v>
+        <v>54785</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>122581</v>
+        <v>122258</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42195</v>
+        <v>44290</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>57333</v>
+        <v>58206</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57958</v>
+        <v>59465</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>91887</v>
+        <v>91960</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>32889</v>
+        <v>32071</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30512</v>
+        <v>30973</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40778</v>
+        <v>43004</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>78197</v>
+        <v>77176</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>68884</v>
+        <v>67252</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>78674</v>
+        <v>76695</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>92529</v>
+        <v>91081</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>161702</v>
+        <v>160215</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20908</v>
+        <v>20617</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26940</v>
+        <v>26266</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28273</v>
+        <v>28650</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>63274</v>
+        <v>63349</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15161</v>
+        <v>15611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16496</v>
+        <v>16498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21613</v>
+        <v>22117</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>37465</v>
+        <v>37554</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>40002</v>
+        <v>40046</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>47891</v>
+        <v>48610</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>55179</v>
+        <v>56397</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>105618</v>
+        <v>105542</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42400</v>
+        <v>41352</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50699</v>
+        <v>50194</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>55628</v>
+        <v>53057</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>93622</v>
+        <v>94653</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33695</v>
+        <v>33800</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35980</v>
+        <v>36724</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43772</v>
+        <v>44594</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>57924</v>
+        <v>57463</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>68452</v>
+        <v>69617</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>78847</v>
+        <v>79773</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>89870</v>
+        <v>91195</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>142156</v>
+        <v>143114</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42990</v>
+        <v>42956</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>68856</v>
+        <v>69738</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>58656</v>
+        <v>58185</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>66221</v>
+        <v>67123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9623</v>
+        <v>9489</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14533</v>
+        <v>14470</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14152</v>
+        <v>13706</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28524</v>
+        <v>29056</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>56918</v>
+        <v>58720</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>90257</v>
+        <v>90685</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>76598</v>
+        <v>77446</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>100369</v>
+        <v>100361</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>72560</v>
+        <v>72059</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>106349</v>
+        <v>106306</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>91253</v>
+        <v>90837</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>97012</v>
+        <v>97959</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25663</v>
+        <v>24364</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32713</v>
+        <v>32869</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33598</v>
+        <v>33850</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45086</v>
+        <v>46246</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>88746</v>
+        <v>90586</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>130230</v>
+        <v>133743</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>115382</v>
+        <v>115313</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>135993</v>
+        <v>135659</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>92448</v>
+        <v>92819</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>132267</v>
+        <v>130725</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>124232</v>
+        <v>124039</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>152151</v>
+        <v>151376</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>41851</v>
+        <v>41812</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>57262</v>
+        <v>56329</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>61257</v>
+        <v>63726</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>95587</v>
+        <v>94493</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>142805</v>
+        <v>144963</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>198661</v>
+        <v>198345</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>196727</v>
+        <v>196512</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>256277</v>
+        <v>255868</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>132303</v>
+        <v>132251</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>181211</v>
+        <v>179989</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>173395</v>
+        <v>169021</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>199851</v>
+        <v>197843</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>70841</v>
+        <v>69195</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>90567</v>
+        <v>91521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>95946</v>
+        <v>96447</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>125937</v>
+        <v>124004</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>189414</v>
+        <v>193936</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>256893</v>
+        <v>258413</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>252532</v>
+        <v>254547</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>310741</v>
+        <v>311131</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18199</v>
+        <v>18579</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>50386</v>
+        <v>50337</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>65770</v>
+        <v>67520</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>68133</v>
+        <v>68955</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>49277</v>
+        <v>48306</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>113060</v>
+        <v>113392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>101543</v>
+        <v>100544</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>164871</v>
+        <v>164691</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>72959</v>
+        <v>71446</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>172814</v>
+        <v>170558</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>176319</v>
+        <v>176048</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>241320</v>
+        <v>242133</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>37626</v>
+        <v>37565</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>79612</v>
+        <v>83272</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>99053</v>
+        <v>100388</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>100937</v>
+        <v>99962</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>77467</v>
+        <v>78628</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>158055</v>
+        <v>159866</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>142538</v>
+        <v>143055</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>203048</v>
+        <v>201721</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>108414</v>
+        <v>108419</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>228374</v>
+        <v>224900</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>229227</v>
+        <v>232056</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>291076</v>
+        <v>290980</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1969</v>
+        <v>2172</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>148705</v>
+        <v>148565</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>188288</v>
+        <v>191534</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>160479</v>
+        <v>159165</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>131608</v>
+        <v>131615</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>151334</v>
+        <v>148134</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>196908</v>
+        <v>192274</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>166089</v>
+        <v>164107</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>134830</v>
+        <v>136535</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7971</v>
+        <v>7982</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11535</v>
+        <v>11139</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11019</v>
+        <v>11171</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11557</v>
+        <v>12067</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>197494</v>
+        <v>198464</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>243393</v>
+        <v>246450</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>214892</v>
+        <v>214159</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>168243</v>
+        <v>167754</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>201193</v>
+        <v>199313</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>252917</v>
+        <v>248388</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>217952</v>
+        <v>218210</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>174242</v>
+        <v>173915</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>228573</v>
+        <v>230054</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>351325</v>
+        <v>348717</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>353871</v>
+        <v>350898</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>457129</v>
+        <v>458707</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>312308</v>
+        <v>313540</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>448071</v>
+        <v>448966</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>427221</v>
+        <v>428306</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>554161</v>
+        <v>555122</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>563264</v>
+        <v>561584</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>815930</v>
+        <v>819520</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>792653</v>
+        <v>804358</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1035057</v>
+        <v>1031910</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>288689</v>
+        <v>292748</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>429042</v>
+        <v>431474</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>429675</v>
+        <v>427423</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>536471</v>
+        <v>540162</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>385948</v>
+        <v>383620</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>535646</v>
+        <v>532227</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>510842</v>
+        <v>508390</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>627025</v>
+        <v>624177</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>656472</v>
+        <v>653031</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>936974</v>
+        <v>931344</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>910952</v>
+        <v>915633</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1140413</v>
+        <v>1141471</v>
       </c>
     </row>
     <row r="32">
